--- a/data/2023/fid/FID-MONTAN-DE-105.xlsx
+++ b/data/2023/fid/FID-MONTAN-DE-105.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -103,12 +103,15 @@
     <t>Litologija i poleznye iskopaemye</t>
   </si>
   <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>Moskva</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Moskva</t>
-  </si>
-  <si>
     <t>0024-497x</t>
   </si>
   <si>
@@ -130,6 +133,66 @@
     <t>0</t>
   </si>
   <si>
+    <t>241165-9</t>
+  </si>
+  <si>
+    <t>Stal'</t>
+  </si>
+  <si>
+    <t>OOO "Intermet inžiniring";Metallurgizd.</t>
+  </si>
+  <si>
+    <t>rus</t>
+  </si>
+  <si>
+    <t>0038-920x</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>19,1;FID-MONTAN-DE-105</t>
+  </si>
+  <si>
+    <t>787689-0;787690-7;771952-8</t>
+  </si>
+  <si>
+    <t>1.1941 - 31.1971; 1972 -</t>
+  </si>
+  <si>
+    <t>254117-8</t>
+  </si>
+  <si>
+    <t>Northern miner</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>0029-3164</t>
+  </si>
+  <si>
+    <t>620;660</t>
+  </si>
+  <si>
+    <t>1.1915 -</t>
+  </si>
+  <si>
+    <t>254938-4</t>
+  </si>
+  <si>
+    <t>Geologija rudnych mestoroždenij</t>
+  </si>
+  <si>
+    <t>Nauka</t>
+  </si>
+  <si>
+    <t>0016-7770</t>
+  </si>
+  <si>
+    <t>1959 - 1962; 5.1963 -</t>
+  </si>
+  <si>
     <t>1345053-0</t>
   </si>
   <si>
@@ -142,67 +205,7 @@
     <t>0869-5997</t>
   </si>
   <si>
-    <t>620;660</t>
-  </si>
-  <si>
     <t>1992-2019 ; damit Erscheinen eingestellt</t>
-  </si>
-  <si>
-    <t>241165-9</t>
-  </si>
-  <si>
-    <t>Stal'</t>
-  </si>
-  <si>
-    <t>OOO "Intermet inžiniring";Metallurgizd.</t>
-  </si>
-  <si>
-    <t>rus</t>
-  </si>
-  <si>
-    <t>0038-920x</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>19,1;FID-MONTAN-DE-105</t>
-  </si>
-  <si>
-    <t>787689-0;787690-7;771952-8</t>
-  </si>
-  <si>
-    <t>1.1941 - 31.1971; 1972 -</t>
-  </si>
-  <si>
-    <t>254117-8</t>
-  </si>
-  <si>
-    <t>Northern miner</t>
-  </si>
-  <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>0029-3164</t>
-  </si>
-  <si>
-    <t>1.1915 -</t>
-  </si>
-  <si>
-    <t>254938-4</t>
-  </si>
-  <si>
-    <t>Geologija rudnych mestoroždenij</t>
-  </si>
-  <si>
-    <t>Nauka</t>
-  </si>
-  <si>
-    <t>0016-7770</t>
-  </si>
-  <si>
-    <t>1959 - 1962; 5.1963 -</t>
   </si>
 </sst>
 </file>
@@ -637,66 +640,66 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -705,75 +708,75 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -782,75 +785,75 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -859,75 +862,75 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -936,70 +939,70 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="W6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="X6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/2023/fid/FID-MONTAN-DE-105.xlsx
+++ b/data/2023/fid/FID-MONTAN-DE-105.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="66">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>1959 - 1962; 5.1963 -</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DE-104</t>
   </si>
   <si>
     <t>1345053-0</t>
@@ -919,18 +925,18 @@
         <v>37</v>
       </c>
       <c r="W5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="X5" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="Y5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -939,10 +945,10 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
@@ -954,7 +960,7 @@
         <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
         <v>52</v>
@@ -981,7 +987,7 @@
         <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S6" t="s">
         <v>31</v>
